--- a/NiTiErp/wwwroot/templates/ChamCongNgay.xlsx
+++ b/NiTiErp/wwwroot/templates/ChamCongNgay.xlsx
@@ -153,7 +153,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -195,6 +195,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -210,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -234,13 +240,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -255,7 +261,37 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -267,13 +303,142 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -287,7 +452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -306,82 +471,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,7 +863,7 @@
   <dimension ref="B2:AK19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -684,68 +879,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B3" s="25"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B6" s="24"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
     </row>
     <row r="7" spans="2:37" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -771,341 +997,367 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="2:37" s="7" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="29" t="s">
+    <row r="8" spans="2:37" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="2:37" s="6" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="26" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:37" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="14" t="s">
+    <row r="10" spans="2:37" s="7" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="Q10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="R10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="14" t="s">
+      <c r="T10" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="U10" s="14" t="s">
+      <c r="U10" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="V10" s="14" t="s">
+      <c r="V10" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="W10" s="14" t="s">
+      <c r="W10" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="X10" s="14" t="s">
+      <c r="X10" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="Y10" s="14" t="s">
+      <c r="Y10" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="Z10" s="14" t="s">
+      <c r="Z10" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="AA10" s="14" t="s">
+      <c r="AA10" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="AB10" s="14" t="s">
+      <c r="AB10" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="AC10" s="14" t="s">
+      <c r="AC10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="AD10" s="14" t="s">
+      <c r="AD10" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AE10" s="14" t="s">
+      <c r="AE10" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="AF10" s="14" t="s">
+      <c r="AF10" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="14" t="s">
+      <c r="AG10" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="AH10" s="14" t="s">
+      <c r="AH10" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AI10" s="14" t="s">
+      <c r="AI10" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AJ10" s="14" t="s">
+      <c r="AJ10" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="AK10" s="27"/>
-    </row>
-    <row r="11" spans="2:37" s="11" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="16"/>
-    </row>
-    <row r="12" spans="2:37" s="11" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="19"/>
-    </row>
-    <row r="13" spans="2:37" s="11" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="21"/>
-      <c r="AK13" s="22"/>
-    </row>
-    <row r="14" spans="2:37" s="11" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="B14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-    </row>
-    <row r="15" spans="2:37" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="AA15" s="8" t="s">
+      <c r="AK10" s="41"/>
+    </row>
+    <row r="11" spans="2:37" s="10" customFormat="1" ht="9" x14ac:dyDescent="0.2">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="36"/>
+    </row>
+    <row r="12" spans="2:37" s="10" customFormat="1" ht="9" x14ac:dyDescent="0.2">
+      <c r="B12" s="25"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="26"/>
+    </row>
+    <row r="13" spans="2:37" s="10" customFormat="1" ht="9.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="31"/>
+    </row>
+    <row r="14" spans="2:37" s="10" customFormat="1" ht="9" x14ac:dyDescent="0.2">
+      <c r="B14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+    </row>
+    <row r="15" spans="2:37" s="7" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="AA15" s="19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="2:37" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="AA16" s="8" t="s">
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+    </row>
+    <row r="16" spans="2:37" s="7" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="AA16" s="19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B17" s="9"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="2:5" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="9"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="2:5" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="9"/>
-      <c r="E19" s="10"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+    </row>
+    <row r="17" spans="2:5" s="7" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B17" s="8"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="2:5" s="7" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="8"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="2:5" s="7" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="8"/>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="AA15:AK15"/>
+    <mergeCell ref="AA16:AK16"/>
+    <mergeCell ref="B5:AK5"/>
+    <mergeCell ref="B6:AK6"/>
     <mergeCell ref="AK9:AK10"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:B10"/>
